--- a/public/file_template/book_template.xlsx
+++ b/public/file_template/book_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HongheLibrary\library\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HongheLibrary\library\public\file_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,9 +32,6 @@
     <t>图书编号</t>
   </si>
   <si>
-    <t>译者</t>
-  </si>
-  <si>
     <t>出版日期</t>
   </si>
   <si>
@@ -58,6 +55,10 @@
   </si>
   <si>
     <t>XXX出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>译者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -65,10 +66,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -87,12 +87,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,7 +115,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -119,10 +125,16 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -405,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -422,75 +434,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3">
         <v>42420</v>
       </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F3" s="3"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F4" s="3"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F5" s="3"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F6" s="3"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F7" s="3"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="G2" s="2">
+        <v>123</v>
+      </c>
+      <c r="I2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="11">
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+      <formula1>"书名"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>"图书编号"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>"作者"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+      <formula1>"译者"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
+      <formula1>"出版社"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="greaterThan" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="F1">
+      <formula1>"出版日期"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="G1">
+      <formula1>"价格"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B1048576">
+      <formula1>1</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E1048576">
+      <formula1>1</formula1>
+      <formula2>64</formula2>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+      <formula1>18264</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>0</formula1>
+      <formula2>9999</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
